--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3381.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3381.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.282597737629057</v>
+        <v>4.867990493774414</v>
       </c>
       <c r="B1">
-        <v>2.572327175037681</v>
+        <v>3.485346794128418</v>
       </c>
       <c r="C1">
-        <v>3.619176620307632</v>
+        <v>1.841484546661377</v>
       </c>
       <c r="D1">
-        <v>4.242696615670563</v>
+        <v>1.455273628234863</v>
       </c>
       <c r="E1">
-        <v>1.225892822441379</v>
+        <v>1.331230878829956</v>
       </c>
     </row>
   </sheetData>
